--- a/src/main/resources/xlsx/pcs/pr-4_9.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-4_9.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>序号</t>
   </si>
@@ -140,6 +140,10 @@
   <si>
     <t>“stage”
 推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表构成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +733,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -794,7 +798,9 @@
       <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">

--- a/src/main/resources/xlsx/pcs/pr-4_9.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-4_9.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942B64A8-B455-4837-AE27-7D3FFB4391B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2595" yWindow="1350" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选统计表" sheetId="1" r:id="rId1"/>
@@ -113,8 +114,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>分党委名称（盖章）：party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本单位共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“stage”
+推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人初步人选统计表
+      <t xml:space="preserve">title
 </t>
     </r>
     <r>
@@ -129,28 +147,11 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>分党委名称（盖章）：party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本单位共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“stage”
-推荐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代表构成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -729,11 +730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E4" sqref="E4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,7 +746,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -759,7 +760,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -775,7 +776,7 @@
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -799,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -854,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>

--- a/src/main/resources/xlsx/pcs/pr-4_9.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-4_9.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942B64A8-B455-4837-AE27-7D3FFB4391B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3E78B6-4A89-4AB8-BF44-84D9DBF5A6F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="1350" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选统计表" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（“stage”阶段，deadline报党委组织部）</t>
+      <t>（“stage”阶段）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -734,7 +734,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:G4"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
